--- a/DÍA 4/Matrices+Desbordadas.xlsx
+++ b/DÍA 4/Matrices+Desbordadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win10\Downloads\00 - FEDE\Udemy\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GUSTAVO\Documents\Cursos Udemy\ExcelTotal\DÍA 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924B0461-70A4-4F10-B4E0-597F792B7CDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC86AF88-48BA-4843-8641-EEC2F8CB2693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{02A90A6A-D7B6-4A56-B81F-18FCC99E18C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{02A90A6A-D7B6-4A56-B81F-18FCC99E18C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,37 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Nombres</t>
   </si>
@@ -61,13 +86,19 @@
   </si>
   <si>
     <t>Benito</t>
+  </si>
+  <si>
+    <t>uso la fórumula ordenar</t>
+  </si>
+  <si>
+    <t>LAS MATRICES DESBORDADAS NO FUNCIONAN EN LAS TABLAS. ME MUESTRAN UN RANGO DE VALORES. PODES HACER MATRICES DESBORDADS DE UNA HOJA A OTRA O DE UN LIBRO A OTRO LIBRO. LOS DOS LIBROS TIENEN QUE ESTAR ABIERTOS PARA QUE FUNCIONE.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,8 +107,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -110,9 +155,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,65 +476,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A485336C-F22F-427B-81C3-188388E96A83}">
-  <dimension ref="B3:B11"/>
+  <dimension ref="B3:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="4" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="4" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="str" cm="1">
+        <f t="array" ref="D4:D11">_xlfn._xlws.SORT(B4:B11)</f>
+        <v>Andrea</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="str">
+        <v>Benito</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="str">
+        <v>Guillermo</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="str">
+        <v>Luz</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="str">
+        <v>Macarena</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="str">
+        <v>Pablo</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="str">
+        <v>Romina</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:J9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
